--- a/PCB/production/UniSNES BOM.xlsx
+++ b/PCB/production/UniSNES BOM.xlsx
@@ -248,7 +248,7 @@
     <t>Thickness</t>
   </si>
   <si>
-    <t>1.5mm</t>
+    <t>1.4mm</t>
   </si>
   <si>
     <t>Finish</t>
@@ -330,11 +330,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9744075" cy="3733800"/>
+    <xdr:ext cx="7896225" cy="3095625"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="Image"/>
